--- a/merge_samples_with_btl/IEPAug2023/20240122 IEPAug23.A.xlsx
+++ b/merge_samples_with_btl/IEPAug2023/20240122 IEPAug23.A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccm21008\Documents\GitHub\gbl_matlab_tools\merge_samples_with_btl\IEPAug2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\gbl_matlab_tools\merge_samples_with_btl\IEPAug2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B197C79-D72D-4F56-B13B-0000C010D81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD352ED-002D-4C6B-B384-4B5C46959B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="945" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="8" r:id="rId1"/>
@@ -5284,18 +5284,18 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <f>'all results'!A2</f>
         <v>45313</v>
@@ -5390,7 +5390,7 @@
         <v>49.516399999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f>'all results'!A3</f>
         <v>45313</v>
@@ -5444,7 +5444,7 @@
         <v>74.192999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f>'all results'!A4</f>
         <v>45313</v>
@@ -5498,7 +5498,7 @@
         <v>38.718400000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f>'all results'!A5</f>
         <v>45313</v>
@@ -5552,7 +5552,7 @@
         <v>52.978000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f>'all results'!A6</f>
         <v>45313</v>
@@ -5606,7 +5606,7 @@
         <v>68.385400000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f>'all results'!A7</f>
         <v>45313</v>
@@ -5660,7 +5660,7 @@
         <v>58.116900000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f>'all results'!A8</f>
         <v>45313</v>
@@ -5714,7 +5714,7 @@
         <v>51.408999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f>'all results'!A9</f>
         <v>45313</v>
@@ -5768,7 +5768,7 @@
         <v>54.052700000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f>'all results'!A10</f>
         <v>45313</v>
@@ -5822,7 +5822,7 @@
         <v>37.913400000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f>'all results'!A11</f>
         <v>45313</v>
@@ -5876,7 +5876,7 @@
         <v>35.811</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <f>'all results'!A12</f>
         <v>45313</v>
@@ -5930,7 +5930,7 @@
         <v>68.498199999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <f>'all results'!A13</f>
         <v>45313</v>
@@ -5984,7 +5984,7 @@
         <v>59.544899999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <f>'all results'!A14</f>
         <v>45313</v>
@@ -6038,7 +6038,7 @@
         <v>36.971699999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f>'all results'!A15</f>
         <v>45313</v>
@@ -6092,7 +6092,7 @@
         <v>60.394100000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f>'all results'!A16</f>
         <v>45313</v>
@@ -6146,7 +6146,7 @@
         <v>65.397099999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f>'all results'!A17</f>
         <v>45313</v>
@@ -6200,7 +6200,7 @@
         <v>67.554699999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <f>'all results'!A18</f>
         <v>45313</v>
@@ -6254,7 +6254,7 @@
         <v>106.33839999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f>'all results'!A19</f>
         <v>45313</v>
@@ -6308,7 +6308,7 @@
         <v>52.610700000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f>'all results'!A20</f>
         <v>45313</v>
@@ -6362,7 +6362,7 @@
         <v>33.216999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <f>'all results'!A21</f>
         <v>45313</v>
@@ -6416,7 +6416,7 @@
         <v>64.844700000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f>'all results'!A22</f>
         <v>45313</v>
@@ -6470,7 +6470,7 @@
         <v>75.954300000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <f>'all results'!A23</f>
         <v>45313</v>
@@ -6524,7 +6524,7 @@
         <v>67.860600000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <f>'all results'!A24</f>
         <v>45313</v>
@@ -6578,7 +6578,7 @@
         <v>58.483800000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <f>'all results'!A25</f>
         <v>45313</v>
@@ -6632,7 +6632,7 @@
         <v>73.516099999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <f>'all results'!A26</f>
         <v>45313</v>
@@ -6686,7 +6686,7 @@
         <v>69.362399999999994</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <f>'all results'!A27</f>
         <v>45313</v>
@@ -6740,7 +6740,7 @@
         <v>90.373999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <f>'all results'!A28</f>
         <v>45313</v>
@@ -6794,7 +6794,7 @@
         <v>57.478400000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <f>'all results'!A29</f>
         <v>45313</v>
@@ -6848,7 +6848,7 @@
         <v>80.0351</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <f>'all results'!A30</f>
         <v>45313</v>
@@ -6902,7 +6902,7 @@
         <v>69.704800000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <f>'all results'!A31</f>
         <v>45313</v>
@@ -6956,7 +6956,7 @@
         <v>76.073499999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <f>'all results'!A32</f>
         <v>45313</v>
@@ -7010,7 +7010,7 @@
         <v>63.378999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <f>'all results'!A33</f>
         <v>45313</v>
@@ -7064,55 +7064,55 @@
         <v>45.802700000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
     </row>
   </sheetData>
@@ -7130,16 +7130,16 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="52.85546875" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="4"/>
-    <col min="9" max="9" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="52.81640625" customWidth="1"/>
+    <col min="4" max="6" width="9.1796875" style="4"/>
+    <col min="9" max="9" width="30.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>140</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <f>'CH1'!B1</f>
         <v>45313</v>
@@ -7186,7 +7186,7 @@
         <v>251.6164</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f>'CH1'!B2</f>
         <v>45313</v>
@@ -7210,7 +7210,7 @@
         <v>251.09889999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f>'CH1'!B3</f>
         <v>45313</v>
@@ -7234,7 +7234,7 @@
         <v>244.7278</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f>'CH1'!B4</f>
         <v>45313</v>
@@ -7258,7 +7258,7 @@
         <v>247.52420000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f>'CH1'!B5</f>
         <v>45313</v>
@@ -7282,7 +7282,7 @@
         <v>248.83750000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f>'CH1'!B6</f>
         <v>45313</v>
@@ -7306,7 +7306,7 @@
         <v>14.9208</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f>'CH1'!B7</f>
         <v>45313</v>
@@ -7330,7 +7330,7 @@
         <v>12.3528</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f>'CH1'!B8</f>
         <v>45313</v>
@@ -7354,7 +7354,7 @@
         <v>113.541</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f>'CH1'!B9</f>
         <v>45313</v>
@@ -7378,7 +7378,7 @@
         <v>115.1636</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f>'CH1'!B10</f>
         <v>45313</v>
@@ -7402,7 +7402,7 @@
         <v>206.47479999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <f>'CH1'!B11</f>
         <v>45313</v>
@@ -7426,7 +7426,7 @@
         <v>374.14550000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <f>'CH1'!B12</f>
         <v>45313</v>
@@ -7450,7 +7450,7 @@
         <v>651.81629999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <f>'CH1'!B13</f>
         <v>45313</v>
@@ -7474,7 +7474,7 @@
         <v>1154.2301</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f>'CH1'!B14</f>
         <v>45313</v>
@@ -7498,7 +7498,7 @@
         <v>2011.1206</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f>'CH1'!B15</f>
         <v>45313</v>
@@ -7522,7 +7522,7 @@
         <v>3287.8933999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f>'CH1'!B16</f>
         <v>45313</v>
@@ -7546,7 +7546,7 @@
         <v>194.72550000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <f>'CH1'!B17</f>
         <v>45313</v>
@@ -7570,7 +7570,7 @@
         <v>195.2996</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f>'CH1'!B18</f>
         <v>45313</v>
@@ -7594,7 +7594,7 @@
         <v>195.41579999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f>'CH1'!B19</f>
         <v>45313</v>
@@ -7618,7 +7618,7 @@
         <v>300.23439999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <f>'CH1'!B20</f>
         <v>45313</v>
@@ -7642,7 +7642,7 @@
         <v>304.2371</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f>'CH1'!B21</f>
         <v>45313</v>
@@ -7666,7 +7666,7 @@
         <v>311.2919</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <f>'CH1'!B22</f>
         <v>45313</v>
@@ -7690,7 +7690,7 @@
         <v>277.33519999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <f>'CH1'!B23</f>
         <v>45313</v>
@@ -7714,7 +7714,7 @@
         <v>422.40649999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <f>'CH1'!B24</f>
         <v>45313</v>
@@ -7738,7 +7738,7 @@
         <v>412.28910000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <f>'CH1'!B25</f>
         <v>45313</v>
@@ -7762,7 +7762,7 @@
         <v>238.46860000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <f>'CH1'!B26</f>
         <v>45313</v>
@@ -7786,7 +7786,7 @@
         <v>332.99639999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <f>'CH1'!B27</f>
         <v>45313</v>
@@ -7810,7 +7810,7 @@
         <v>248.5352</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <f>'CH1'!B28</f>
         <v>45313</v>
@@ -7834,7 +7834,7 @@
         <v>221.7072</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <f>'CH1'!B29</f>
         <v>45313</v>
@@ -7858,7 +7858,7 @@
         <v>376.2817</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <f>'CH1'!B30</f>
         <v>45313</v>
@@ -7882,7 +7882,7 @@
         <v>274.15750000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <f>'CH1'!B31</f>
         <v>45313</v>
@@ -7906,7 +7906,7 @@
         <v>381.31799999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <f>'CH1'!B32</f>
         <v>45313</v>
@@ -7930,7 +7930,7 @@
         <v>288.39370000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <f>'CH1'!B33</f>
         <v>45313</v>
@@ -7954,7 +7954,7 @@
         <v>331.9348</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <f>'CH1'!B34</f>
         <v>45313</v>
@@ -7978,7 +7978,7 @@
         <v>314.9513</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <f>'CH1'!B35</f>
         <v>45313</v>
@@ -8002,7 +8002,7 @@
         <v>347.18700000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <f>'CH1'!B36</f>
         <v>45313</v>
@@ -8026,7 +8026,7 @@
         <v>327.27690000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <f>'CH1'!B37</f>
         <v>45313</v>
@@ -8050,7 +8050,7 @@
         <v>381.70769999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <f>'CH1'!B38</f>
         <v>45313</v>
@@ -8074,7 +8074,7 @@
         <v>229.89609999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <f>'CH1'!B39</f>
         <v>45313</v>
@@ -8098,7 +8098,7 @@
         <v>369.84780000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <f>'CH1'!B40</f>
         <v>45313</v>
@@ -8122,7 +8122,7 @@
         <v>268.03469999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <f>'CH1'!B41</f>
         <v>45313</v>
@@ -8146,7 +8146,7 @@
         <v>277.89819999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <f>'CH1'!B42</f>
         <v>45313</v>
@@ -8170,7 +8170,7 @@
         <v>511.97460000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <f>'CH1'!B43</f>
         <v>45313</v>
@@ -8194,7 +8194,7 @@
         <v>299.15649999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <f>'CH1'!B44</f>
         <v>45313</v>
@@ -8218,7 +8218,7 @@
         <v>233.9092</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <f>'CH1'!B45</f>
         <v>45313</v>
@@ -8242,7 +8242,7 @@
         <v>294.69839999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <f>'CH1'!B46</f>
         <v>45313</v>
@@ -8266,7 +8266,7 @@
         <v>247.75970000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <f>'CH1'!B47</f>
         <v>45313</v>
@@ -8290,7 +8290,7 @@
         <v>238.38069999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <f>'CH1'!B48</f>
         <v>45313</v>
@@ -8314,7 +8314,7 @@
         <v>14.710699999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <f>'CH1'!B49</f>
         <v>45313</v>
@@ -8338,7 +8338,7 @@
         <v>115.70229999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <f>'CH1'!B50</f>
         <v>45313</v>
@@ -8362,7 +8362,7 @@
         <v>209.23679999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <f>'CH1'!B51</f>
         <v>45313</v>
@@ -8386,7 +8386,7 @@
         <v>373.2029</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <f>'CH1'!B52</f>
         <v>45313</v>
@@ -8410,7 +8410,7 @@
         <v>646.38530000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <f>'CH1'!B53</f>
         <v>45313</v>
@@ -8434,7 +8434,7 @@
         <v>1170.9844000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <f>'CH1'!B54</f>
         <v>45313</v>
@@ -8458,7 +8458,7 @@
         <v>2032.4253000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <f>'CH1'!B55</f>
         <v>45313</v>
@@ -8482,32 +8482,32 @@
         <v>3295.3692000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
     </row>
@@ -8526,17 +8526,17 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="4" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="4"/>
+    <col min="1" max="1" width="13.54296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="9.1796875" style="4"/>
     <col min="6" max="6" width="13" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="7" max="7" width="13.54296875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="49" t="s">
         <v>17</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>10.14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="49" t="s">
         <v>18</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="51" t="str">
         <f>'all results'!B1</f>
         <v>Sample ID</v>
@@ -8586,7 +8586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="46"/>
       <c r="B5" t="s">
         <v>148</v>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="46"/>
       <c r="B6" t="s">
         <v>148</v>
@@ -8644,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="46"/>
       <c r="B7" s="4" t="s">
         <v>148</v>
@@ -8673,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="46"/>
       <c r="B8" t="s">
         <v>153</v>
@@ -8702,7 +8702,7 @@
         <v>0.14233791748526523</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="46"/>
       <c r="B9" t="s">
         <v>153</v>
@@ -8731,7 +8731,7 @@
         <v>0.14233791748526523</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="46"/>
       <c r="B10" t="s">
         <v>153</v>
@@ -8760,7 +8760,7 @@
         <v>0.14233791748526523</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="46"/>
       <c r="B11" t="s">
         <v>155</v>
@@ -8789,7 +8789,7 @@
         <v>0.27972972972972976</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="46"/>
       <c r="B12" t="s">
         <v>155</v>
@@ -8818,7 +8818,7 @@
         <v>0.27972972972972976</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="46"/>
       <c r="B13" s="4" t="s">
         <v>156</v>
@@ -8847,7 +8847,7 @@
         <v>0.54067164179104477</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="46"/>
       <c r="B14" t="s">
         <v>156</v>
@@ -8876,7 +8876,7 @@
         <v>0.54067164179104477</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="46"/>
       <c r="B15" t="s">
         <v>157</v>
@@ -8905,7 +8905,7 @@
         <v>1.0132867132867134</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="46"/>
       <c r="B16" t="s">
         <v>157</v>
@@ -8934,7 +8934,7 @@
         <v>1.0132867132867134</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="46"/>
       <c r="B17" s="46" t="s">
         <v>158</v>
@@ -8963,7 +8963,7 @@
         <v>2.0125000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="46"/>
       <c r="B18" s="46" t="s">
         <v>158</v>
@@ -8992,7 +8992,7 @@
         <v>2.0125000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="46"/>
       <c r="B19" s="46" t="s">
         <v>159</v>
@@ -9021,7 +9021,7 @@
         <v>4.0250000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="46"/>
       <c r="B20" s="46" t="s">
         <v>159</v>
@@ -9050,7 +9050,7 @@
         <v>4.0250000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="46"/>
       <c r="B21" s="46">
         <v>200</v>
@@ -9079,7 +9079,7 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="46"/>
       <c r="B22" s="46">
         <v>200</v>
@@ -9108,1085 +9108,1085 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
       <c r="E24" s="46"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="46"/>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="46"/>
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
       <c r="E26" s="46"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="46"/>
       <c r="B27" s="46"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="46"/>
       <c r="B28" s="46"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="46"/>
       <c r="B29" s="46"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
       <c r="E29" s="46"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
       <c r="E30" s="46"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="46"/>
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
       <c r="E31" s="46"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="46"/>
       <c r="B32" s="46"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
       <c r="E32" s="46"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="46"/>
       <c r="B33" s="46"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
       <c r="E33" s="46"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="46"/>
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
       <c r="E34" s="46"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="46"/>
       <c r="B35" s="46"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
       <c r="E35" s="46"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="46"/>
       <c r="B36" s="46"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
       <c r="E36" s="46"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="46"/>
       <c r="B37" s="46"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
       <c r="E37" s="46"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="46"/>
       <c r="B38" s="46"/>
       <c r="C38" s="46"/>
       <c r="D38" s="46"/>
       <c r="E38" s="46"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="46"/>
       <c r="B39" s="46"/>
       <c r="C39" s="46"/>
       <c r="D39" s="46"/>
       <c r="E39" s="46"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="46"/>
       <c r="B40" s="46"/>
       <c r="C40" s="46"/>
       <c r="D40" s="46"/>
       <c r="E40" s="46"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="46"/>
       <c r="B41" s="46"/>
       <c r="C41" s="46"/>
       <c r="D41" s="46"/>
       <c r="E41" s="46"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="46"/>
       <c r="B42" s="46"/>
       <c r="C42" s="46"/>
       <c r="D42" s="46"/>
       <c r="E42" s="46"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="46"/>
       <c r="B43" s="46"/>
       <c r="C43" s="46"/>
       <c r="D43" s="46"/>
       <c r="E43" s="46"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="46"/>
       <c r="B44" s="46"/>
       <c r="C44" s="46"/>
       <c r="D44" s="46"/>
       <c r="E44" s="46"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="46"/>
       <c r="B45" s="46"/>
       <c r="C45" s="46"/>
       <c r="D45" s="46"/>
       <c r="E45" s="46"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="46"/>
       <c r="B46" s="46"/>
       <c r="C46" s="46"/>
       <c r="D46" s="46"/>
       <c r="E46" s="46"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="46"/>
       <c r="B47" s="46"/>
       <c r="C47" s="46"/>
       <c r="D47" s="46"/>
       <c r="E47" s="46"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="46"/>
       <c r="B48" s="46"/>
       <c r="C48" s="46"/>
       <c r="D48" s="46"/>
       <c r="E48" s="46"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="46"/>
       <c r="B49" s="46"/>
       <c r="C49" s="46"/>
       <c r="D49" s="46"/>
       <c r="E49" s="46"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="46"/>
       <c r="B50" s="46"/>
       <c r="C50" s="46"/>
       <c r="D50" s="46"/>
       <c r="E50" s="46"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="46"/>
       <c r="B51" s="46"/>
       <c r="C51" s="46"/>
       <c r="D51" s="46"/>
       <c r="E51" s="46"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="46"/>
       <c r="B52" s="46"/>
       <c r="C52" s="46"/>
       <c r="D52" s="46"/>
       <c r="E52" s="46"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="46"/>
       <c r="B53" s="46"/>
       <c r="C53" s="46"/>
       <c r="D53" s="46"/>
       <c r="E53" s="46"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="46"/>
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
       <c r="D54" s="46"/>
       <c r="E54" s="46"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="46"/>
       <c r="B55" s="46"/>
       <c r="C55" s="46"/>
       <c r="D55" s="46"/>
       <c r="E55" s="46"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="46"/>
       <c r="B56" s="46"/>
       <c r="C56" s="46"/>
       <c r="D56" s="46"/>
       <c r="E56" s="46"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="46"/>
       <c r="B57" s="46"/>
       <c r="C57" s="46"/>
       <c r="D57" s="46"/>
       <c r="E57" s="46"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="46"/>
       <c r="B58" s="46"/>
       <c r="C58" s="46"/>
       <c r="D58" s="46"/>
       <c r="E58" s="46"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="46"/>
       <c r="B59" s="46"/>
       <c r="C59" s="46"/>
       <c r="D59" s="46"/>
       <c r="E59" s="46"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="46"/>
       <c r="B60" s="46"/>
       <c r="C60" s="46"/>
       <c r="D60" s="46"/>
       <c r="E60" s="46"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="46"/>
       <c r="B61" s="46"/>
       <c r="C61" s="46"/>
       <c r="D61" s="46"/>
       <c r="E61" s="46"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="46"/>
       <c r="B62" s="46"/>
       <c r="C62" s="46"/>
       <c r="D62" s="46"/>
       <c r="E62" s="46"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="46"/>
       <c r="B63" s="46"/>
       <c r="C63" s="46"/>
       <c r="D63" s="46"/>
       <c r="E63" s="46"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="46"/>
       <c r="B64" s="46"/>
       <c r="C64" s="46"/>
       <c r="D64" s="46"/>
       <c r="E64" s="46"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="46"/>
       <c r="B65" s="46"/>
       <c r="C65" s="46"/>
       <c r="D65" s="46"/>
       <c r="E65" s="46"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="46"/>
       <c r="B66" s="46"/>
       <c r="C66" s="46"/>
       <c r="D66" s="46"/>
       <c r="E66" s="46"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="46"/>
       <c r="B67" s="46"/>
       <c r="C67" s="46"/>
       <c r="D67" s="46"/>
       <c r="E67" s="46"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="46"/>
       <c r="B68" s="46"/>
       <c r="C68" s="46"/>
       <c r="D68" s="46"/>
       <c r="E68" s="46"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="46"/>
       <c r="B69" s="46"/>
       <c r="C69" s="46"/>
       <c r="D69" s="46"/>
       <c r="E69" s="46"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="46"/>
       <c r="B70" s="46"/>
       <c r="C70" s="46"/>
       <c r="D70" s="46"/>
       <c r="E70" s="46"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="46"/>
       <c r="B71" s="46"/>
       <c r="C71" s="46"/>
       <c r="D71" s="46"/>
       <c r="E71" s="46"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="46"/>
       <c r="B72" s="46"/>
       <c r="C72" s="46"/>
       <c r="D72" s="46"/>
       <c r="E72" s="46"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="46"/>
       <c r="B73" s="46"/>
       <c r="C73" s="46"/>
       <c r="D73" s="46"/>
       <c r="E73" s="46"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="46"/>
       <c r="B74" s="46"/>
       <c r="C74" s="46"/>
       <c r="D74" s="46"/>
       <c r="E74" s="46"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="46"/>
       <c r="B75" s="46"/>
       <c r="C75" s="46"/>
       <c r="D75" s="46"/>
       <c r="E75" s="46"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="46"/>
       <c r="B76" s="46"/>
       <c r="C76" s="46"/>
       <c r="D76" s="46"/>
       <c r="E76" s="46"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="46"/>
       <c r="B77" s="46"/>
       <c r="C77" s="46"/>
       <c r="D77" s="46"/>
       <c r="E77" s="46"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="46"/>
       <c r="B78" s="46"/>
       <c r="C78" s="46"/>
       <c r="D78" s="46"/>
       <c r="E78" s="46"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="46"/>
       <c r="B79" s="46"/>
       <c r="C79" s="46"/>
       <c r="D79" s="46"/>
       <c r="E79" s="46"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="46"/>
       <c r="B80" s="46"/>
       <c r="C80" s="46"/>
       <c r="D80" s="46"/>
       <c r="E80" s="46"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="46"/>
       <c r="B81" s="46"/>
       <c r="C81" s="46"/>
       <c r="D81" s="46"/>
       <c r="E81" s="46"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="46"/>
       <c r="B82" s="46"/>
       <c r="C82" s="46"/>
       <c r="D82" s="46"/>
       <c r="E82" s="46"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="46"/>
       <c r="B83" s="46"/>
       <c r="C83" s="46"/>
       <c r="D83" s="46"/>
       <c r="E83" s="46"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="46"/>
       <c r="B84" s="46"/>
       <c r="C84" s="46"/>
       <c r="D84" s="46"/>
       <c r="E84" s="46"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="46"/>
       <c r="B85" s="46"/>
       <c r="C85" s="46"/>
       <c r="D85" s="46"/>
       <c r="E85" s="46"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="46"/>
       <c r="B86" s="46"/>
       <c r="C86" s="46"/>
       <c r="D86" s="46"/>
       <c r="E86" s="46"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="46"/>
       <c r="B87" s="46"/>
       <c r="C87" s="46"/>
       <c r="D87" s="46"/>
       <c r="E87" s="46"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="46"/>
       <c r="B88" s="46"/>
       <c r="C88" s="46"/>
       <c r="D88" s="46"/>
       <c r="E88" s="46"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="46"/>
       <c r="B89" s="46"/>
       <c r="C89" s="46"/>
       <c r="D89" s="46"/>
       <c r="E89" s="46"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="46"/>
       <c r="B90" s="46"/>
       <c r="C90" s="46"/>
       <c r="D90" s="46"/>
       <c r="E90" s="46"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="46"/>
       <c r="B91" s="46"/>
       <c r="C91" s="46"/>
       <c r="D91" s="46"/>
       <c r="E91" s="46"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="46"/>
       <c r="B92" s="46"/>
       <c r="C92" s="46"/>
       <c r="D92" s="46"/>
       <c r="E92" s="46"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="46"/>
       <c r="B93" s="46"/>
       <c r="C93" s="46"/>
       <c r="D93" s="46"/>
       <c r="E93" s="46"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="46"/>
       <c r="B94" s="46"/>
       <c r="C94" s="46"/>
       <c r="D94" s="46"/>
       <c r="E94" s="46"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="46"/>
       <c r="B95" s="46"/>
       <c r="C95" s="46"/>
       <c r="D95" s="46"/>
       <c r="E95" s="46"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="46"/>
       <c r="B96" s="46"/>
       <c r="C96" s="46"/>
       <c r="D96" s="46"/>
       <c r="E96" s="46"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="46"/>
       <c r="B97" s="46"/>
       <c r="C97" s="46"/>
       <c r="D97" s="46"/>
       <c r="E97" s="46"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="46"/>
       <c r="B98" s="46"/>
       <c r="C98" s="46"/>
       <c r="D98" s="46"/>
       <c r="E98" s="46"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="46"/>
       <c r="B99" s="46"/>
       <c r="C99" s="46"/>
       <c r="D99" s="46"/>
       <c r="E99" s="46"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="46"/>
       <c r="B100" s="46"/>
       <c r="C100" s="46"/>
       <c r="D100" s="46"/>
       <c r="E100" s="46"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="46"/>
       <c r="B101" s="46"/>
       <c r="C101" s="46"/>
       <c r="D101" s="46"/>
       <c r="E101" s="46"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="46"/>
       <c r="B102" s="46"/>
       <c r="C102" s="46"/>
       <c r="D102" s="46"/>
       <c r="E102" s="46"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="46"/>
       <c r="B103" s="46"/>
       <c r="C103" s="46"/>
       <c r="D103" s="46"/>
       <c r="E103" s="46"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="46"/>
       <c r="B104" s="46"/>
       <c r="C104" s="46"/>
       <c r="D104" s="46"/>
       <c r="E104" s="46"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="46"/>
       <c r="B105" s="46"/>
       <c r="C105" s="46"/>
       <c r="D105" s="46"/>
       <c r="E105" s="46"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="46"/>
       <c r="B106" s="46"/>
       <c r="C106" s="46"/>
       <c r="D106" s="46"/>
       <c r="E106" s="46"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="46"/>
       <c r="B107" s="46"/>
       <c r="C107" s="46"/>
       <c r="D107" s="46"/>
       <c r="E107" s="46"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="46"/>
       <c r="B108" s="46"/>
       <c r="C108" s="46"/>
       <c r="D108" s="46"/>
       <c r="E108" s="46"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="46"/>
       <c r="B109" s="46"/>
       <c r="C109" s="46"/>
       <c r="D109" s="46"/>
       <c r="E109" s="46"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="46"/>
       <c r="B110" s="46"/>
       <c r="C110" s="46"/>
       <c r="D110" s="46"/>
       <c r="E110" s="46"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="46"/>
       <c r="B111" s="46"/>
       <c r="C111" s="46"/>
       <c r="D111" s="46"/>
       <c r="E111" s="46"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="46"/>
       <c r="B112" s="46"/>
       <c r="C112" s="46"/>
       <c r="D112" s="46"/>
       <c r="E112" s="46"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="46"/>
       <c r="B113" s="46"/>
       <c r="C113" s="46"/>
       <c r="D113" s="46"/>
       <c r="E113" s="46"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="46"/>
       <c r="B114" s="46"/>
       <c r="C114" s="46"/>
       <c r="D114" s="46"/>
       <c r="E114" s="46"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="46"/>
       <c r="B115" s="46"/>
       <c r="C115" s="46"/>
       <c r="D115" s="46"/>
       <c r="E115" s="46"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="46"/>
       <c r="B116" s="46"/>
       <c r="C116" s="46"/>
       <c r="D116" s="46"/>
       <c r="E116" s="46"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="46"/>
       <c r="B117" s="46"/>
       <c r="C117" s="46"/>
       <c r="D117" s="46"/>
       <c r="E117" s="46"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="46"/>
       <c r="B118" s="46"/>
       <c r="C118" s="46"/>
       <c r="D118" s="46"/>
       <c r="E118" s="46"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="46"/>
       <c r="B119" s="46"/>
       <c r="C119" s="46"/>
       <c r="D119" s="46"/>
       <c r="E119" s="46"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="46"/>
       <c r="B120" s="46"/>
       <c r="C120" s="46"/>
       <c r="D120" s="46"/>
       <c r="E120" s="46"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="46"/>
       <c r="B121" s="46"/>
       <c r="C121" s="46"/>
       <c r="D121" s="46"/>
       <c r="E121" s="46"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="46"/>
       <c r="B122" s="46"/>
       <c r="C122" s="46"/>
       <c r="D122" s="46"/>
       <c r="E122" s="46"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="46"/>
       <c r="B123" s="46"/>
       <c r="C123" s="46"/>
       <c r="D123" s="46"/>
       <c r="E123" s="46"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="46"/>
       <c r="B124" s="46"/>
       <c r="C124" s="46"/>
       <c r="D124" s="46"/>
       <c r="E124" s="46"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="46"/>
       <c r="B125" s="46"/>
       <c r="C125" s="46"/>
       <c r="D125" s="46"/>
       <c r="E125" s="46"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="46"/>
       <c r="B126" s="46"/>
       <c r="C126" s="46"/>
       <c r="D126" s="46"/>
       <c r="E126" s="46"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="46"/>
       <c r="B127" s="46"/>
       <c r="C127" s="46"/>
       <c r="D127" s="46"/>
       <c r="E127" s="46"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="46"/>
       <c r="B128" s="46"/>
       <c r="C128" s="46"/>
       <c r="D128" s="46"/>
       <c r="E128" s="46"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="46"/>
       <c r="B129" s="46"/>
       <c r="C129" s="46"/>
       <c r="D129" s="46"/>
       <c r="E129" s="46"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="46"/>
       <c r="B130" s="46"/>
       <c r="C130" s="46"/>
       <c r="D130" s="46"/>
       <c r="E130" s="46"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="46"/>
       <c r="B131" s="46"/>
       <c r="C131" s="46"/>
       <c r="D131" s="46"/>
       <c r="E131" s="46"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="46"/>
       <c r="B132" s="46"/>
       <c r="C132" s="46"/>
       <c r="D132" s="46"/>
       <c r="E132" s="46"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="46"/>
       <c r="B133" s="46"/>
       <c r="C133" s="46"/>
       <c r="D133" s="46"/>
       <c r="E133" s="46"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="46"/>
       <c r="B134" s="46"/>
       <c r="C134" s="46"/>
       <c r="D134" s="46"/>
       <c r="E134" s="46"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="46"/>
       <c r="B135" s="46"/>
       <c r="C135" s="46"/>
       <c r="D135" s="46"/>
       <c r="E135" s="46"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="46"/>
       <c r="B136" s="46"/>
       <c r="C136" s="46"/>
       <c r="D136" s="46"/>
       <c r="E136" s="46"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="46"/>
       <c r="B137" s="46"/>
       <c r="C137" s="46"/>
       <c r="D137" s="46"/>
       <c r="E137" s="46"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="46"/>
       <c r="B138" s="46"/>
       <c r="C138" s="46"/>
       <c r="D138" s="46"/>
       <c r="E138" s="46"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="46"/>
       <c r="B139" s="46"/>
       <c r="C139" s="46"/>
       <c r="D139" s="46"/>
       <c r="E139" s="46"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="46"/>
       <c r="B140" s="46"/>
       <c r="C140" s="46"/>
       <c r="D140" s="46"/>
       <c r="E140" s="46"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="46"/>
       <c r="B141" s="46"/>
       <c r="C141" s="46"/>
       <c r="D141" s="46"/>
       <c r="E141" s="46"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="46"/>
       <c r="B142" s="46"/>
       <c r="C142" s="46"/>
       <c r="D142" s="46"/>
       <c r="E142" s="46"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="46"/>
       <c r="B143" s="46"/>
       <c r="C143" s="46"/>
       <c r="D143" s="46"/>
       <c r="E143" s="46"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="46"/>
       <c r="B144" s="46"/>
       <c r="C144" s="46"/>
       <c r="D144" s="46"/>
       <c r="E144" s="46"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="46"/>
       <c r="B145" s="46"/>
       <c r="C145" s="46"/>
       <c r="D145" s="46"/>
       <c r="E145" s="46"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="46"/>
       <c r="B146" s="46"/>
       <c r="C146" s="46"/>
       <c r="D146" s="46"/>
       <c r="E146" s="46"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="46"/>
       <c r="B147" s="46"/>
       <c r="C147" s="46"/>
       <c r="D147" s="46"/>
       <c r="E147" s="46"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="46"/>
       <c r="B148" s="46"/>
       <c r="C148" s="46"/>
       <c r="D148" s="46"/>
       <c r="E148" s="46"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="46"/>
       <c r="B149" s="46"/>
       <c r="C149" s="46"/>
       <c r="D149" s="46"/>
       <c r="E149" s="46"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="46"/>
       <c r="B150" s="46"/>
       <c r="C150" s="46"/>
       <c r="D150" s="46"/>
       <c r="E150" s="46"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="46"/>
       <c r="B151" s="46"/>
       <c r="C151" s="46"/>
       <c r="D151" s="46"/>
       <c r="E151" s="46"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="46"/>
       <c r="B152" s="46"/>
       <c r="C152" s="46"/>
       <c r="D152" s="46"/>
       <c r="E152" s="46"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="46"/>
       <c r="B153" s="46"/>
       <c r="C153" s="46"/>
       <c r="D153" s="46"/>
       <c r="E153" s="46"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="46"/>
       <c r="B154" s="46"/>
       <c r="C154" s="46"/>
       <c r="D154" s="46"/>
       <c r="E154" s="46"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="46"/>
       <c r="B155" s="46"/>
       <c r="C155" s="46"/>
       <c r="D155" s="46"/>
       <c r="E155" s="46"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="46"/>
       <c r="B156" s="46"/>
       <c r="C156" s="46"/>
       <c r="D156" s="46"/>
       <c r="E156" s="46"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="46"/>
       <c r="B157" s="46"/>
       <c r="C157" s="46"/>
       <c r="D157" s="46"/>
       <c r="E157" s="46"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="46"/>
       <c r="B158" s="46"/>
       <c r="C158" s="46"/>
       <c r="D158" s="46"/>
       <c r="E158" s="46"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="46"/>
       <c r="B159" s="46"/>
       <c r="C159" s="46"/>
       <c r="D159" s="46"/>
       <c r="E159" s="46"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="46"/>
       <c r="B160" s="46"/>
       <c r="C160" s="46"/>
       <c r="D160" s="46"/>
       <c r="E160" s="46"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="46"/>
       <c r="B161" s="46"/>
       <c r="C161" s="46"/>
       <c r="D161" s="46"/>
       <c r="E161" s="46"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="46"/>
       <c r="B162" s="46"/>
       <c r="C162" s="46"/>
       <c r="D162" s="46"/>
       <c r="E162" s="46"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="46"/>
       <c r="B163" s="46"/>
       <c r="C163" s="46"/>
       <c r="D163" s="46"/>
       <c r="E163" s="46"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="46"/>
       <c r="B164" s="46"/>
       <c r="C164" s="46"/>
       <c r="D164" s="46"/>
       <c r="E164" s="46"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="46"/>
       <c r="B165" s="46"/>
       <c r="C165" s="46"/>
       <c r="D165" s="46"/>
       <c r="E165" s="46"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="46"/>
       <c r="B166" s="46"/>
       <c r="C166" s="46"/>
       <c r="D166" s="46"/>
       <c r="E166" s="46"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="46"/>
       <c r="B167" s="46"/>
       <c r="C167" s="46"/>
       <c r="D167" s="46"/>
       <c r="E167" s="46"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="46"/>
       <c r="B168" s="46"/>
       <c r="C168" s="46"/>
       <c r="D168" s="46"/>
       <c r="E168" s="46"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="46"/>
       <c r="B169" s="46"/>
       <c r="C169" s="46"/>
       <c r="D169" s="46"/>
       <c r="E169" s="46"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="46"/>
       <c r="B170" s="46"/>
       <c r="C170" s="46"/>
       <c r="D170" s="46"/>
       <c r="E170" s="46"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="46"/>
       <c r="B171" s="46"/>
       <c r="C171" s="46"/>
       <c r="D171" s="46"/>
       <c r="E171" s="46"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="46"/>
       <c r="B172" s="46"/>
       <c r="C172" s="46"/>
       <c r="D172" s="46"/>
       <c r="E172" s="46"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="46"/>
       <c r="B173" s="46"/>
       <c r="C173" s="46"/>
       <c r="D173" s="46"/>
       <c r="E173" s="46"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="46"/>
       <c r="B174" s="46"/>
       <c r="C174" s="46"/>
       <c r="D174" s="46"/>
       <c r="E174" s="46"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="46"/>
       <c r="B175" s="46"/>
       <c r="C175" s="46"/>
       <c r="D175" s="46"/>
       <c r="E175" s="46"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="46"/>
       <c r="B176" s="46"/>
       <c r="C176" s="46"/>
       <c r="D176" s="46"/>
       <c r="E176" s="46"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="46"/>
       <c r="B177" s="46"/>
       <c r="C177" s="46"/>
@@ -10204,31 +10204,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91871A7-5432-40D6-8CA2-70DF5C51E63B}">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="116" workbookViewId="0">
-      <selection activeCell="B34" sqref="B5:B34"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="116" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" style="4" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="4"/>
-    <col min="8" max="8" width="14.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="4"/>
-    <col min="15" max="16" width="14.7109375" style="4" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="24.42578125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.1796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="41.7265625" style="4" customWidth="1"/>
+    <col min="3" max="7" width="9.1796875" style="4"/>
+    <col min="8" max="8" width="14.1796875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.1796875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="18.7265625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="16.7265625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="9.1796875" style="4"/>
+    <col min="15" max="16" width="14.7265625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="19.81640625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="12.26953125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="24.453125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="17.54296875" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
         <v>1</v>
       </c>
@@ -10290,7 +10290,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F2" s="50" t="s">
         <v>39</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="str">
         <f>'all results'!B17</f>
         <v>S17</v>
@@ -10405,7 +10405,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="str">
         <f>'all results'!B18</f>
         <v>S18</v>
@@ -10467,7 +10467,7 @@
         <v>23.056006979079893</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="str">
         <f>'all results'!B19</f>
         <v>S19</v>
@@ -10529,7 +10529,7 @@
         <v>22.985867018691536</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="str">
         <f>'all results'!B20</f>
         <v>S20</v>
@@ -10591,7 +10591,7 @@
         <v>22.900761873376464</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="str">
         <f>'all results'!B21</f>
         <v>S21</v>
@@ -10653,7 +10653,7 @@
         <v>22.530749563631943</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="str">
         <f>'all results'!B22</f>
         <v>S22</v>
@@ -10715,7 +10715,7 @@
         <v>22.850760209897487</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="str">
         <f>'all results'!B23</f>
         <v>S23</v>
@@ -10774,7 +10774,7 @@
         <v>22.554983288716262</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="str">
         <f>'all results'!B24</f>
         <v>S24</v>
@@ -10833,7 +10833,7 @@
         <v>22.479292767553428</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="str">
         <f>'all results'!B25</f>
         <v>S25</v>
@@ -10892,7 +10892,7 @@
         <v>22.124050358203359</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="str">
         <f>'all results'!B26</f>
         <v>S26</v>
@@ -10951,7 +10951,7 @@
         <v>22.038845486690548</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="str">
         <f>'all results'!B27</f>
         <v>S27</v>
@@ -11010,7 +11010,7 @@
         <v>22.016105480049728</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="str">
         <f>'all results'!B28</f>
         <v>S28</v>
@@ -11069,7 +11069,7 @@
         <v>22.079529448038656</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="str">
         <f>'all results'!B29</f>
         <v>S29</v>
@@ -11128,7 +11128,7 @@
         <v>21.990773662011218</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="str">
         <f>'all results'!B30</f>
         <v>S30</v>
@@ -11187,7 +11187,7 @@
         <v>21.381388412360089</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="str">
         <f>'all results'!B31</f>
         <v>S31</v>
@@ -11246,7 +11246,7 @@
         <v>21.7330699754541</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="str">
         <f>'all results'!B32</f>
         <v>S32</v>
@@ -11305,7 +11305,7 @@
         <v>21.310012763790169</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="str">
         <f>'all results'!B33</f>
         <v>S33</v>
@@ -11364,7 +11364,7 @@
         <v>21.636527829104899</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="str">
         <f>'all results'!B34</f>
         <v>S34</v>
@@ -11423,7 +11423,7 @@
         <v>21.849225255112458</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="str">
         <f>'all results'!B35</f>
         <v>S35</v>
@@ -11482,7 +11482,7 @@
         <v>21.257898034601826</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="str">
         <f>'all results'!B36</f>
         <v>S36</v>
@@ -11541,7 +11541,7 @@
         <v>21.729872697993475</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="str">
         <f>'all results'!B37</f>
         <v>S37</v>
@@ -11600,7 +11600,7 @@
         <v>21.934954749536274</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="str">
         <f>'all results'!B38</f>
         <v>S38</v>
@@ -11659,7 +11659,7 @@
         <v>21.501774610801693</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="str">
         <f>'all results'!B39</f>
         <v>S39</v>
@@ -11718,7 +11718,7 @@
         <v>22.447670370954025</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="str">
         <f>'all results'!B40</f>
         <v>S40</v>
@@ -11777,7 +11777,7 @@
         <v>22.715493513948477</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="str">
         <f>'all results'!B41</f>
         <v>S41</v>
@@ -11836,7 +11836,7 @@
         <v>21.346049512707808</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="str">
         <f>'all results'!B42</f>
         <v>S42</v>
@@ -11895,7 +11895,7 @@
         <v>22.431722202031466</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="str">
         <f>'all results'!B43</f>
         <v>S43</v>
@@ -11954,7 +11954,7 @@
         <v>21.819165305750094</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="str">
         <f>'all results'!B44</f>
         <v>S44</v>
@@ -12013,7 +12013,7 @@
         <v>23.39782010192971</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="str">
         <f>'all results'!B45</f>
         <v>S45</v>
@@ -12072,7 +12072,7 @@
         <v>22.793228543393219</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="str">
         <f>'all results'!B46</f>
         <v>S46</v>
@@ -12131,7 +12131,7 @@
         <v>22.549343293140609</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="str">
         <f>'all results'!B47</f>
         <v>S47</v>
@@ -12190,7 +12190,7 @@
         <v>22.047791661105101</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="str">
         <f>'all results'!B48</f>
         <v>S48</v>
@@ -12249,7 +12249,7 @@
         <v>22.215640073343472</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F35" s="48"/>
       <c r="G35" s="48"/>
       <c r="H35" s="48"/>
@@ -12261,7 +12261,7 @@
       <c r="P35" s="54"/>
       <c r="Q35" s="54"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F36" s="48"/>
       <c r="G36" s="48"/>
       <c r="H36" s="48"/>
@@ -12274,7 +12274,7 @@
       <c r="P36" s="54"/>
       <c r="Q36" s="54"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F37" s="48"/>
       <c r="G37" s="48"/>
       <c r="H37" s="48"/>
@@ -12287,7 +12287,7 @@
       <c r="P37" s="54"/>
       <c r="Q37" s="54"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F38" s="48"/>
       <c r="G38" s="48"/>
       <c r="H38" s="48"/>
@@ -12300,7 +12300,7 @@
       <c r="P38" s="54"/>
       <c r="Q38" s="54"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F39" s="48"/>
       <c r="G39" s="48"/>
       <c r="H39" s="48"/>
@@ -12313,7 +12313,7 @@
       <c r="P39" s="54"/>
       <c r="Q39" s="54"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F40" s="48"/>
       <c r="G40" s="48"/>
       <c r="H40" s="48"/>
@@ -12336,51 +12336,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFCCCE8-39D6-43FA-9D3F-5CF5894F0D54}">
   <dimension ref="A1:AM964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" style="7" customWidth="1"/>
     <col min="3" max="3" width="44" style="7" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="44.28515625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="31.26953125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="44.26953125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" style="7" customWidth="1"/>
     <col min="13" max="13" width="13" style="7" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="14.54296875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="17.54296875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="12.54296875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" style="7" customWidth="1"/>
     <col min="18" max="22" width="9" style="7" customWidth="1"/>
-    <col min="23" max="23" width="9.42578125" style="7" customWidth="1"/>
+    <col min="23" max="23" width="9.453125" style="7" customWidth="1"/>
     <col min="24" max="25" width="9" style="7" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="7" customWidth="1"/>
-    <col min="27" max="27" width="21.140625" style="7" customWidth="1"/>
-    <col min="28" max="28" width="13.28515625" style="30" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="30" customWidth="1"/>
-    <col min="30" max="30" width="25.5703125" style="7" customWidth="1"/>
-    <col min="31" max="31" width="14.140625" style="7" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" style="7"/>
-    <col min="33" max="34" width="10.28515625" style="7" customWidth="1"/>
-    <col min="35" max="35" width="14.42578125" style="7"/>
-    <col min="36" max="36" width="17.5703125" style="7" customWidth="1"/>
-    <col min="37" max="16384" width="14.42578125" style="7"/>
+    <col min="26" max="26" width="12.54296875" style="7" customWidth="1"/>
+    <col min="27" max="27" width="21.1796875" style="7" customWidth="1"/>
+    <col min="28" max="28" width="13.26953125" style="30" customWidth="1"/>
+    <col min="29" max="29" width="15.7265625" style="30" customWidth="1"/>
+    <col min="30" max="30" width="25.54296875" style="7" customWidth="1"/>
+    <col min="31" max="31" width="14.1796875" style="7" customWidth="1"/>
+    <col min="32" max="32" width="14.453125" style="7"/>
+    <col min="33" max="34" width="10.26953125" style="7" customWidth="1"/>
+    <col min="35" max="35" width="14.453125" style="7"/>
+    <col min="36" max="36" width="17.54296875" style="7" customWidth="1"/>
+    <col min="37" max="16384" width="14.453125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="E2" s="6" t="s">
         <v>47</v>
@@ -12396,7 +12396,7 @@
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
     </row>
-    <row r="3" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>49</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>55</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D5" s="18"/>
       <c r="E5" s="55">
         <v>7.8023999999999996E-2</v>
@@ -12638,7 +12638,7 @@
       <c r="AK5" s="30"/>
       <c r="AM5" s="30"/>
     </row>
-    <row r="6" spans="1:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D6" s="18"/>
       <c r="E6" s="55">
         <v>7.8023999999999996E-2</v>
@@ -12750,7 +12750,7 @@
       <c r="AK6" s="30"/>
       <c r="AM6" s="30"/>
     </row>
-    <row r="7" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D7" s="18"/>
       <c r="E7" s="55">
         <v>7.8023999999999996E-2</v>
@@ -12851,7 +12851,7 @@
       <c r="AK7" s="30"/>
       <c r="AM7" s="30"/>
     </row>
-    <row r="8" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D8" s="18"/>
       <c r="E8" s="55">
         <v>7.8023999999999996E-2</v>
@@ -12951,7 +12951,7 @@
       <c r="AK8" s="30"/>
       <c r="AM8" s="30"/>
     </row>
-    <row r="9" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D9" s="18"/>
       <c r="E9" s="55">
         <v>7.8023999999999996E-2</v>
@@ -13049,7 +13049,7 @@
       <c r="AG9" s="33"/>
       <c r="AM9" s="30"/>
     </row>
-    <row r="10" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D10" s="18"/>
       <c r="E10" s="55">
         <v>7.8023999999999996E-2</v>
@@ -13147,7 +13147,7 @@
       <c r="AG10" s="33"/>
       <c r="AM10" s="30"/>
     </row>
-    <row r="11" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D11" s="18"/>
       <c r="E11" s="55">
         <v>7.8023999999999996E-2</v>
@@ -13243,7 +13243,7 @@
       </c>
       <c r="AM11" s="30"/>
     </row>
-    <row r="12" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D12" s="18"/>
       <c r="E12" s="55">
         <v>7.8023999999999996E-2</v>
@@ -13339,7 +13339,7 @@
       </c>
       <c r="AM12" s="30"/>
     </row>
-    <row r="13" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D13" s="18"/>
       <c r="E13" s="55">
         <v>7.8023999999999996E-2</v>
@@ -13435,7 +13435,7 @@
       </c>
       <c r="AM13" s="30"/>
     </row>
-    <row r="14" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D14" s="18"/>
       <c r="E14" s="55">
         <v>7.8023999999999996E-2</v>
@@ -13531,7 +13531,7 @@
       </c>
       <c r="AM14" s="30"/>
     </row>
-    <row r="15" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D15" s="18"/>
       <c r="E15" s="55">
         <v>7.8023999999999996E-2</v>
@@ -13635,7 +13635,7 @@
       <c r="AL15" s="29"/>
       <c r="AM15" s="30"/>
     </row>
-    <row r="16" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D16" s="18"/>
       <c r="E16" s="55">
         <v>7.8023999999999996E-2</v>
@@ -13739,7 +13739,7 @@
       <c r="AL16" s="29"/>
       <c r="AM16" s="30"/>
     </row>
-    <row r="17" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D17" s="18"/>
       <c r="E17" s="55">
         <v>7.8023999999999996E-2</v>
@@ -13834,7 +13834,7 @@
         <v>IEPAug23-SHBML12-Ni8-782</v>
       </c>
     </row>
-    <row r="18" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D18" s="18"/>
       <c r="E18" s="55">
         <v>7.8023999999999996E-2</v>
@@ -13929,7 +13929,7 @@
         <v>IEPAug23-SHMBL11-Ni4-664</v>
       </c>
     </row>
-    <row r="19" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D19" s="18"/>
       <c r="E19" s="55">
         <v>7.8023999999999996E-2</v>
@@ -14024,7 +14024,7 @@
         <v>IEPAug23-SHBML10-Ni5-679</v>
       </c>
     </row>
-    <row r="20" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E20" s="55">
         <v>7.8023999999999996E-2</v>
       </c>
@@ -14118,7 +14118,7 @@
         <v>IEPAug23-SHBML11-Ni5-663</v>
       </c>
     </row>
-    <row r="21" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E21" s="55">
         <v>7.8023999999999996E-2</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>IEPAug23-KML03-Ni8-350</v>
       </c>
     </row>
-    <row r="22" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E22" s="55">
         <v>7.8023999999999996E-2</v>
       </c>
@@ -14306,7 +14306,7 @@
         <v>IEPAug23-KML05-Ni4-391</v>
       </c>
     </row>
-    <row r="23" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E23" s="55">
         <v>7.8023999999999996E-2</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>IEPAug23-KML05-Ni5-394</v>
       </c>
     </row>
-    <row r="24" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E24" s="55">
         <v>7.8023999999999996E-2</v>
       </c>
@@ -14494,7 +14494,7 @@
         <v>IEPAug23-KML01-Ni4-336</v>
       </c>
     </row>
-    <row r="25" spans="4:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E25" s="55">
         <v>7.8023999999999996E-2</v>
       </c>
@@ -14588,7 +14588,7 @@
         <v>IEPAug23-KML01-Ni5-354</v>
       </c>
     </row>
-    <row r="26" spans="4:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E26" s="55">
         <v>7.8023999999999996E-2</v>
       </c>
@@ -14682,7 +14682,7 @@
         <v>IEPAug23-KML03-Ni3-362</v>
       </c>
     </row>
-    <row r="27" spans="4:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E27" s="55">
         <v>7.8023999999999996E-2</v>
       </c>
@@ -14776,7 +14776,7 @@
         <v>IEPAug23-KML09-Ni8-170</v>
       </c>
     </row>
-    <row r="28" spans="4:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E28" s="55">
         <v>7.8023999999999996E-2</v>
       </c>
@@ -14870,7 +14870,7 @@
         <v>IEPAug23-KML03-Ni1-351</v>
       </c>
     </row>
-    <row r="29" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E29" s="55">
         <v>7.8023999999999996E-2</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>IEPAug23-KML03-Ni9-359</v>
       </c>
     </row>
-    <row r="30" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E30" s="55">
         <v>7.8023999999999996E-2</v>
       </c>
@@ -15058,7 +15058,7 @@
         <v>IEPAug23-SHBML13-Ni8-439</v>
       </c>
     </row>
-    <row r="31" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E31" s="55">
         <v>7.8023999999999996E-2</v>
       </c>
@@ -15152,7 +15152,7 @@
         <v>IEPAug23-KML09-Ni1-279</v>
       </c>
     </row>
-    <row r="32" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E32" s="55">
         <v>7.8023999999999996E-2</v>
       </c>
@@ -15246,7 +15246,7 @@
         <v>IEPAug23-KML04-Ni5-342</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E33" s="55">
         <v>7.8023999999999996E-2</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>IEPAug23-KML07-Ni10-314</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E34" s="55">
         <v>7.8023999999999996E-2</v>
       </c>
@@ -15434,7 +15434,7 @@
         <v>IEPAug23-KML08-Ni5-293</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E35" s="55">
         <v>7.8023999999999996E-2</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>IEPAug23-KML04-Ni8-369</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E36" s="55">
         <v>7.8023999999999996E-2</v>
       </c>
@@ -15622,7 +15622,7 @@
         <v>IEPAug23-KML07-Ni9-312</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E37" s="55"/>
       <c r="F37" s="55"/>
       <c r="G37"/>
@@ -15650,7 +15650,7 @@
       <c r="AC37" s="24"/>
       <c r="AD37"/>
     </row>
-    <row r="38" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E38" s="55"/>
       <c r="F38" s="55"/>
       <c r="G38"/>
@@ -15678,7 +15678,7 @@
       <c r="AC38" s="24"/>
       <c r="AD38"/>
     </row>
-    <row r="39" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E39" s="55"/>
       <c r="F39" s="55"/>
       <c r="G39"/>
@@ -15706,7 +15706,7 @@
       <c r="AC39" s="24"/>
       <c r="AD39"/>
     </row>
-    <row r="40" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -15737,7 +15737,7 @@
       <c r="AC40" s="24"/>
       <c r="AD40"/>
     </row>
-    <row r="41" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -15768,7 +15768,7 @@
       <c r="AC41" s="24"/>
       <c r="AD41"/>
     </row>
-    <row r="42" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -15799,7 +15799,7 @@
       <c r="AC42" s="24"/>
       <c r="AD42"/>
     </row>
-    <row r="43" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -15830,7 +15830,7 @@
       <c r="AC43" s="24"/>
       <c r="AD43"/>
     </row>
-    <row r="44" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -15861,1000 +15861,1000 @@
       <c r="AC44" s="24"/>
       <c r="AD44"/>
     </row>
-    <row r="45" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
     </row>
-    <row r="46" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
     </row>
-    <row r="47" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
     </row>
-    <row r="48" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
     </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
     </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
     </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
     </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
     </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18"/>
     </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="18"/>
     </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="18"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="AB3:AC3"/>
@@ -16877,31 +16877,31 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="8.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="7" customWidth="1"/>
-    <col min="5" max="6" width="11.5703125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="47.5703125" style="7" customWidth="1"/>
-    <col min="9" max="28" width="8.5703125" style="7" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" style="30" customWidth="1"/>
+    <col min="1" max="3" width="8.54296875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" style="7" customWidth="1"/>
+    <col min="5" max="6" width="11.54296875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="47.54296875" style="7" customWidth="1"/>
+    <col min="9" max="28" width="8.54296875" style="7" customWidth="1"/>
+    <col min="29" max="29" width="10.54296875" style="30" customWidth="1"/>
     <col min="30" max="30" width="16" style="30" customWidth="1"/>
-    <col min="31" max="31" width="26.85546875" style="7" customWidth="1"/>
-    <col min="32" max="32" width="10.5703125" style="7" customWidth="1"/>
-    <col min="33" max="35" width="8.5703125" style="7" customWidth="1"/>
-    <col min="36" max="36" width="17.7109375" style="7" customWidth="1"/>
-    <col min="37" max="16384" width="14.42578125" style="7"/>
+    <col min="31" max="31" width="26.81640625" style="7" customWidth="1"/>
+    <col min="32" max="32" width="10.54296875" style="7" customWidth="1"/>
+    <col min="33" max="35" width="8.54296875" style="7" customWidth="1"/>
+    <col min="36" max="36" width="17.7265625" style="7" customWidth="1"/>
+    <col min="37" max="16384" width="14.453125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>99</v>
       </c>
       <c r="AC1" s="25"/>
       <c r="AD1" s="25"/>
     </row>
-    <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="E2" s="6" t="s">
         <v>100</v>
@@ -16921,7 +16921,7 @@
       <c r="AC2" s="25"/>
       <c r="AD2" s="25"/>
     </row>
-    <row r="3" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>49</v>
       </c>
@@ -16973,7 +16973,7 @@
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9"/>
     </row>
-    <row r="4" spans="1:38" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>55</v>
       </c>
@@ -17077,7 +17077,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="56">
@@ -17179,7 +17179,7 @@
       <c r="AK5" s="30"/>
       <c r="AL5" s="42"/>
     </row>
-    <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E6" s="56">
         <v>3.39E-7</v>
       </c>
@@ -17280,7 +17280,7 @@
       <c r="AK6" s="30"/>
       <c r="AL6" s="42"/>
     </row>
-    <row r="7" spans="1:38" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="56">
@@ -17383,7 +17383,7 @@
       <c r="AK7" s="30"/>
       <c r="AL7" s="42"/>
     </row>
-    <row r="8" spans="1:38" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="56">
@@ -17498,7 +17498,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D9" s="18"/>
       <c r="E9" s="56">
         <v>3.39E-7</v>
@@ -17599,7 +17599,7 @@
       <c r="AG9" s="32"/>
       <c r="AH9" s="24"/>
     </row>
-    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D10" s="18"/>
       <c r="E10" s="56">
         <v>3.39E-7</v>
@@ -17700,7 +17700,7 @@
       <c r="AH10" s="24"/>
       <c r="AI10" s="27"/>
     </row>
-    <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D11" s="18"/>
       <c r="E11" s="56">
         <v>3.39E-7</v>
@@ -17802,7 +17802,7 @@
       <c r="AH11" s="24"/>
       <c r="AI11" s="27"/>
     </row>
-    <row r="12" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D12" s="18"/>
       <c r="E12" s="56">
         <v>3.39E-7</v>
@@ -17904,7 +17904,7 @@
       <c r="AH12" s="24"/>
       <c r="AI12" s="27"/>
     </row>
-    <row r="13" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D13" s="18"/>
       <c r="E13" s="56">
         <v>3.39E-7</v>
@@ -18006,7 +18006,7 @@
       <c r="AH13" s="18"/>
       <c r="AI13" s="27"/>
     </row>
-    <row r="14" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -18113,7 +18113,7 @@
       <c r="AJ14" s="18"/>
       <c r="AK14" s="35"/>
     </row>
-    <row r="15" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E15" s="56">
         <v>3.39E-7</v>
       </c>
@@ -18216,7 +18216,7 @@
       <c r="AJ15" s="9"/>
       <c r="AK15" s="35"/>
     </row>
-    <row r="16" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E16" s="56">
         <v>3.39E-7</v>
       </c>
@@ -18316,7 +18316,7 @@
       <c r="AG16" s="43"/>
       <c r="AH16" s="18"/>
     </row>
-    <row r="17" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E17" s="56">
         <v>3.39E-7</v>
       </c>
@@ -18418,7 +18418,7 @@
       <c r="AI17" s="18"/>
       <c r="AJ17" s="18"/>
     </row>
-    <row r="18" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E18" s="56">
         <v>3.39E-7</v>
       </c>
@@ -18520,7 +18520,7 @@
       <c r="AI18" s="18"/>
       <c r="AJ18" s="18"/>
     </row>
-    <row r="19" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E19" s="56">
         <v>3.39E-7</v>
       </c>
@@ -18622,7 +18622,7 @@
       <c r="AI19" s="18"/>
       <c r="AJ19" s="18"/>
     </row>
-    <row r="20" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E20" s="56">
         <v>3.39E-7</v>
       </c>
@@ -18724,7 +18724,7 @@
       <c r="AI20" s="18"/>
       <c r="AJ20" s="18"/>
     </row>
-    <row r="21" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E21" s="56">
         <v>3.39E-7</v>
       </c>
@@ -18826,7 +18826,7 @@
       <c r="AI21" s="18"/>
       <c r="AJ21" s="18"/>
     </row>
-    <row r="22" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E22" s="56">
         <v>3.39E-7</v>
       </c>
@@ -18926,7 +18926,7 @@
       <c r="AI22" s="18"/>
       <c r="AJ22" s="18"/>
     </row>
-    <row r="23" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E23" s="56">
         <v>3.39E-7</v>
       </c>
@@ -19027,7 +19027,7 @@
       <c r="AI23" s="32"/>
       <c r="AJ23" s="25"/>
     </row>
-    <row r="24" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E24" s="56">
         <v>3.39E-7</v>
       </c>
@@ -19128,7 +19128,7 @@
       <c r="AI24" s="34"/>
       <c r="AJ24" s="25"/>
     </row>
-    <row r="25" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E25" s="56">
         <v>3.39E-7</v>
       </c>
@@ -19229,7 +19229,7 @@
       <c r="AI25" s="32"/>
       <c r="AJ25" s="25"/>
     </row>
-    <row r="26" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E26" s="56">
         <v>3.39E-7</v>
       </c>
@@ -19330,7 +19330,7 @@
       <c r="AI26" s="32"/>
       <c r="AJ26" s="25"/>
     </row>
-    <row r="27" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E27" s="56">
         <v>3.39E-7</v>
       </c>
@@ -19431,7 +19431,7 @@
       <c r="AI27" s="18"/>
       <c r="AJ27" s="18"/>
     </row>
-    <row r="28" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E28" s="56">
         <v>3.39E-7</v>
       </c>
@@ -19532,7 +19532,7 @@
       <c r="AI28" s="18"/>
       <c r="AJ28" s="18"/>
     </row>
-    <row r="29" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E29" s="56">
         <v>3.39E-7</v>
       </c>
@@ -19629,7 +19629,7 @@
         <v>IEPAug23-KML03-Ni9-359</v>
       </c>
     </row>
-    <row r="30" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E30" s="56">
         <v>3.39E-7</v>
       </c>
@@ -19726,7 +19726,7 @@
         <v>IEPAug23-SHBML13-Ni8-439</v>
       </c>
     </row>
-    <row r="31" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E31" s="56">
         <v>3.39E-7</v>
       </c>
@@ -19823,7 +19823,7 @@
         <v>IEPAug23-KML09-Ni1-279</v>
       </c>
     </row>
-    <row r="32" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E32" s="56">
         <v>3.39E-7</v>
       </c>
@@ -19920,7 +19920,7 @@
         <v>IEPAug23-KML04-Ni5-342</v>
       </c>
     </row>
-    <row r="33" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E33" s="56">
         <v>3.39E-7</v>
       </c>
@@ -20017,7 +20017,7 @@
         <v>IEPAug23-KML07-Ni10-314</v>
       </c>
     </row>
-    <row r="34" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E34" s="56">
         <v>3.39E-7</v>
       </c>
@@ -20114,7 +20114,7 @@
         <v>IEPAug23-KML08-Ni5-293</v>
       </c>
     </row>
-    <row r="35" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E35" s="56">
         <v>3.39E-7</v>
       </c>
@@ -20211,7 +20211,7 @@
         <v>IEPAug23-KML04-Ni8-369</v>
       </c>
     </row>
-    <row r="36" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E36" s="56">
         <v>3.39E-7</v>
       </c>
@@ -20308,7 +20308,7 @@
         <v>IEPAug23-KML07-Ni9-312</v>
       </c>
     </row>
-    <row r="37" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E37" s="56"/>
       <c r="F37" s="56"/>
       <c r="G37" s="56"/>
@@ -20334,7 +20334,7 @@
       <c r="AD37" s="24"/>
       <c r="AE37"/>
     </row>
-    <row r="38" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E38" s="56"/>
       <c r="F38" s="56"/>
       <c r="G38" s="56"/>
@@ -20360,7 +20360,7 @@
       <c r="AD38" s="24"/>
       <c r="AE38"/>
     </row>
-    <row r="39" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E39" s="56"/>
       <c r="F39" s="56"/>
       <c r="G39" s="56"/>
@@ -20386,7 +20386,7 @@
       <c r="AD39" s="24"/>
       <c r="AE39"/>
     </row>
-    <row r="40" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E40" s="56"/>
       <c r="F40" s="56"/>
       <c r="G40" s="56"/>
@@ -20412,7 +20412,7 @@
       <c r="AD40" s="24"/>
       <c r="AE40"/>
     </row>
-    <row r="41" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E41" s="40"/>
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
@@ -20438,7 +20438,7 @@
       <c r="AD41" s="24"/>
       <c r="AE41"/>
     </row>
-    <row r="42" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E42" s="40"/>
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
@@ -20464,7 +20464,7 @@
       <c r="AD42" s="24"/>
       <c r="AE42"/>
     </row>
-    <row r="43" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E43" s="40"/>
       <c r="F43" s="40"/>
       <c r="G43" s="40"/>
@@ -20490,7 +20490,7 @@
       <c r="AD43" s="24"/>
       <c r="AE43"/>
     </row>
-    <row r="44" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E44" s="40"/>
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
@@ -20516,7 +20516,7 @@
       <c r="AD44" s="24"/>
       <c r="AE44"/>
     </row>
-    <row r="45" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E45" s="40"/>
       <c r="F45" s="40"/>
       <c r="G45" s="40"/>
@@ -20542,7 +20542,7 @@
       <c r="AD45" s="24"/>
       <c r="AE45"/>
     </row>
-    <row r="46" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E46" s="40"/>
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
@@ -20568,171 +20568,171 @@
       <c r="AD46" s="24"/>
       <c r="AE46"/>
     </row>
-    <row r="47" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC47" s="25"/>
       <c r="AD47" s="25"/>
     </row>
-    <row r="48" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC48" s="25"/>
       <c r="AD48" s="25"/>
     </row>
-    <row r="49" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC49" s="25"/>
       <c r="AD49" s="25"/>
     </row>
-    <row r="50" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC50" s="25"/>
       <c r="AD50" s="25"/>
     </row>
-    <row r="51" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC51" s="25"/>
       <c r="AD51" s="25"/>
     </row>
-    <row r="52" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC52" s="25"/>
       <c r="AD52" s="25"/>
     </row>
-    <row r="53" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC53" s="25"/>
       <c r="AD53" s="25"/>
     </row>
-    <row r="54" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC54" s="25"/>
       <c r="AD54" s="25"/>
     </row>
-    <row r="55" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC55" s="25"/>
       <c r="AD55" s="25"/>
     </row>
-    <row r="56" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC56" s="25"/>
       <c r="AD56" s="25"/>
     </row>
-    <row r="57" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC57" s="25"/>
       <c r="AD57" s="25"/>
     </row>
-    <row r="58" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC58" s="25"/>
       <c r="AD58" s="25"/>
     </row>
-    <row r="59" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC59" s="25"/>
       <c r="AD59" s="25"/>
     </row>
-    <row r="60" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC60" s="25"/>
       <c r="AD60" s="25"/>
     </row>
-    <row r="61" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC61" s="25"/>
       <c r="AD61" s="25"/>
     </row>
-    <row r="62" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC62" s="25"/>
       <c r="AD62" s="25"/>
     </row>
-    <row r="63" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC63" s="25"/>
       <c r="AD63" s="25"/>
     </row>
-    <row r="64" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC64" s="25"/>
       <c r="AD64" s="25"/>
     </row>
-    <row r="65" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC65" s="25"/>
       <c r="AD65" s="25"/>
     </row>
-    <row r="66" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC66" s="25"/>
       <c r="AD66" s="25"/>
     </row>
-    <row r="67" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC67" s="25"/>
       <c r="AD67" s="25"/>
     </row>
-    <row r="68" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC68" s="25"/>
       <c r="AD68" s="25"/>
     </row>
-    <row r="69" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC69" s="25"/>
       <c r="AD69" s="25"/>
     </row>
-    <row r="70" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC70" s="25"/>
       <c r="AD70" s="25"/>
     </row>
-    <row r="71" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC71" s="25"/>
       <c r="AD71" s="25"/>
     </row>
-    <row r="72" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC72" s="25"/>
       <c r="AD72" s="25"/>
     </row>
-    <row r="73" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC73" s="25"/>
       <c r="AD73" s="25"/>
     </row>
-    <row r="74" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC74" s="25"/>
       <c r="AD74" s="25"/>
     </row>
-    <row r="75" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC75" s="25"/>
       <c r="AD75" s="25"/>
     </row>
-    <row r="76" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC76" s="25"/>
       <c r="AD76" s="25"/>
     </row>
-    <row r="77" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC77" s="25"/>
       <c r="AD77" s="25"/>
     </row>
-    <row r="78" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC78" s="25"/>
       <c r="AD78" s="25"/>
     </row>
-    <row r="79" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC79" s="25"/>
       <c r="AD79" s="25"/>
     </row>
-    <row r="80" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC80" s="25"/>
       <c r="AD80" s="25"/>
     </row>
-    <row r="81" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC81" s="25"/>
       <c r="AD81" s="25"/>
     </row>
-    <row r="82" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC82" s="25"/>
       <c r="AD82" s="25"/>
     </row>
-    <row r="83" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC83" s="25"/>
       <c r="AD83" s="25"/>
     </row>
-    <row r="84" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC84" s="25"/>
       <c r="AD84" s="25"/>
     </row>
-    <row r="85" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC85" s="25"/>
       <c r="AD85" s="25"/>
     </row>
-    <row r="86" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC86" s="25"/>
       <c r="AD86" s="25"/>
     </row>
-    <row r="87" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC87" s="25"/>
       <c r="AD87" s="25"/>
     </row>
-    <row r="88" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="18" t="s">
         <v>110</v>
       </c>
@@ -20742,7 +20742,7 @@
       <c r="AC88" s="25"/>
       <c r="AD88" s="25"/>
     </row>
-    <row r="89" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="18" t="s">
         <v>112</v>
       </c>
@@ -20752,7 +20752,7 @@
       <c r="AC89" s="25"/>
       <c r="AD89" s="25"/>
     </row>
-    <row r="90" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="18" t="s">
         <v>114</v>
       </c>
@@ -20762,7 +20762,7 @@
       <c r="AC90" s="25"/>
       <c r="AD90" s="25"/>
     </row>
-    <row r="91" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="18" t="s">
         <v>116</v>
       </c>
@@ -20772,7 +20772,7 @@
       <c r="AC91" s="25"/>
       <c r="AD91" s="25"/>
     </row>
-    <row r="92" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="18" t="s">
         <v>118</v>
       </c>
@@ -20782,7 +20782,7 @@
       <c r="AC92" s="25"/>
       <c r="AD92" s="25"/>
     </row>
-    <row r="93" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="18" t="s">
         <v>120</v>
       </c>
@@ -20792,13 +20792,13 @@
       <c r="AC93" s="25"/>
       <c r="AD93" s="25"/>
     </row>
-    <row r="94" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="18"/>
       <c r="B94" s="18"/>
       <c r="AC94" s="25"/>
       <c r="AD94" s="25"/>
     </row>
-    <row r="95" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="18" t="s">
         <v>122</v>
       </c>
@@ -20808,7 +20808,7 @@
       <c r="AC95" s="25"/>
       <c r="AD95" s="25"/>
     </row>
-    <row r="96" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="18" t="s">
         <v>124</v>
       </c>
@@ -20818,7 +20818,7 @@
       <c r="AC96" s="25"/>
       <c r="AD96" s="25"/>
     </row>
-    <row r="97" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="18" t="s">
         <v>126</v>
       </c>
@@ -20828,7 +20828,7 @@
       <c r="AC97" s="25"/>
       <c r="AD97" s="25"/>
     </row>
-    <row r="98" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="18" t="s">
         <v>128</v>
       </c>
@@ -20838,7 +20838,7 @@
       <c r="AC98" s="25"/>
       <c r="AD98" s="25"/>
     </row>
-    <row r="99" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="18" t="s">
         <v>130</v>
       </c>
@@ -20848,7 +20848,7 @@
       <c r="AC99" s="25"/>
       <c r="AD99" s="25"/>
     </row>
-    <row r="100" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="18" t="s">
         <v>83</v>
       </c>
@@ -20858,7 +20858,7 @@
       <c r="AC100" s="25"/>
       <c r="AD100" s="25"/>
     </row>
-    <row r="101" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="18" t="s">
         <v>85</v>
       </c>
@@ -20868,7 +20868,7 @@
       <c r="AC101" s="25"/>
       <c r="AD101" s="25"/>
     </row>
-    <row r="102" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="18" t="s">
         <v>132</v>
       </c>
@@ -20878,7 +20878,7 @@
       <c r="AC102" s="25"/>
       <c r="AD102" s="25"/>
     </row>
-    <row r="103" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="18" t="s">
         <v>87</v>
       </c>
@@ -20888,7 +20888,7 @@
       <c r="AC103" s="25"/>
       <c r="AD103" s="25"/>
     </row>
-    <row r="104" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="18" t="s">
         <v>89</v>
       </c>
@@ -20898,7 +20898,7 @@
       <c r="AC104" s="25"/>
       <c r="AD104" s="25"/>
     </row>
-    <row r="105" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="18" t="s">
         <v>91</v>
       </c>
@@ -20908,7 +20908,7 @@
       <c r="AC105" s="25"/>
       <c r="AD105" s="25"/>
     </row>
-    <row r="106" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="18" t="s">
         <v>92</v>
       </c>
@@ -20918,7 +20918,7 @@
       <c r="AC106" s="25"/>
       <c r="AD106" s="25"/>
     </row>
-    <row r="107" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="18" t="s">
         <v>93</v>
       </c>
@@ -20928,7 +20928,7 @@
       <c r="AC107" s="25"/>
       <c r="AD107" s="25"/>
     </row>
-    <row r="108" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="18" t="s">
         <v>94</v>
       </c>
@@ -20938,7 +20938,7 @@
       <c r="AC108" s="25"/>
       <c r="AD108" s="25"/>
     </row>
-    <row r="109" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="18" t="s">
         <v>96</v>
       </c>
@@ -20948,7 +20948,7 @@
       <c r="AC109" s="25"/>
       <c r="AD109" s="25"/>
     </row>
-    <row r="110" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="18" t="s">
         <v>97</v>
       </c>
@@ -20958,7 +20958,7 @@
       <c r="AC110" s="25"/>
       <c r="AD110" s="25"/>
     </row>
-    <row r="111" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="18" t="s">
         <v>98</v>
       </c>
@@ -20968,1431 +20968,1431 @@
       <c r="AC111" s="25"/>
       <c r="AD111" s="25"/>
     </row>
-    <row r="112" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC112" s="25"/>
       <c r="AD112" s="25"/>
     </row>
-    <row r="113" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC113" s="25"/>
       <c r="AD113" s="25"/>
     </row>
-    <row r="114" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC114" s="25"/>
       <c r="AD114" s="25"/>
     </row>
-    <row r="115" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC115" s="25"/>
       <c r="AD115" s="25"/>
     </row>
-    <row r="116" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC116" s="25"/>
       <c r="AD116" s="25"/>
     </row>
-    <row r="117" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC117" s="25"/>
       <c r="AD117" s="25"/>
     </row>
-    <row r="118" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC118" s="25"/>
       <c r="AD118" s="25"/>
     </row>
-    <row r="119" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC119" s="25"/>
       <c r="AD119" s="25"/>
     </row>
-    <row r="120" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC120" s="25"/>
       <c r="AD120" s="25"/>
     </row>
-    <row r="121" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC121" s="25"/>
       <c r="AD121" s="25"/>
     </row>
-    <row r="122" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC122" s="25"/>
       <c r="AD122" s="25"/>
     </row>
-    <row r="123" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC123" s="25"/>
       <c r="AD123" s="25"/>
     </row>
-    <row r="124" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC124" s="25"/>
       <c r="AD124" s="25"/>
     </row>
-    <row r="125" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC125" s="25"/>
       <c r="AD125" s="25"/>
     </row>
-    <row r="126" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC126" s="25"/>
       <c r="AD126" s="25"/>
     </row>
-    <row r="127" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC127" s="25"/>
       <c r="AD127" s="25"/>
     </row>
-    <row r="128" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC128" s="25"/>
       <c r="AD128" s="25"/>
     </row>
-    <row r="129" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC129" s="25"/>
       <c r="AD129" s="25"/>
     </row>
-    <row r="130" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC130" s="25"/>
       <c r="AD130" s="25"/>
     </row>
-    <row r="131" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC131" s="25"/>
       <c r="AD131" s="25"/>
     </row>
-    <row r="132" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC132" s="25"/>
       <c r="AD132" s="25"/>
     </row>
-    <row r="133" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC133" s="25"/>
       <c r="AD133" s="25"/>
     </row>
-    <row r="134" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC134" s="25"/>
       <c r="AD134" s="25"/>
     </row>
-    <row r="135" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC135" s="25"/>
       <c r="AD135" s="25"/>
     </row>
-    <row r="136" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC136" s="25"/>
       <c r="AD136" s="25"/>
     </row>
-    <row r="137" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC137" s="25"/>
       <c r="AD137" s="25"/>
     </row>
-    <row r="138" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC138" s="25"/>
       <c r="AD138" s="25"/>
     </row>
-    <row r="139" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC139" s="25"/>
       <c r="AD139" s="25"/>
     </row>
-    <row r="140" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC140" s="25"/>
       <c r="AD140" s="25"/>
     </row>
-    <row r="141" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC141" s="25"/>
       <c r="AD141" s="25"/>
     </row>
-    <row r="142" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC142" s="25"/>
       <c r="AD142" s="25"/>
     </row>
-    <row r="143" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC143" s="25"/>
       <c r="AD143" s="25"/>
     </row>
-    <row r="144" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC144" s="25"/>
       <c r="AD144" s="25"/>
     </row>
-    <row r="145" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC145" s="25"/>
       <c r="AD145" s="25"/>
     </row>
-    <row r="146" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC146" s="25"/>
       <c r="AD146" s="25"/>
     </row>
-    <row r="147" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC147" s="25"/>
       <c r="AD147" s="25"/>
     </row>
-    <row r="148" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC148" s="25"/>
       <c r="AD148" s="25"/>
     </row>
-    <row r="149" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC149" s="25"/>
       <c r="AD149" s="25"/>
     </row>
-    <row r="150" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC150" s="25"/>
       <c r="AD150" s="25"/>
     </row>
-    <row r="151" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC151" s="25"/>
       <c r="AD151" s="25"/>
     </row>
-    <row r="152" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC152" s="25"/>
       <c r="AD152" s="25"/>
     </row>
-    <row r="153" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC153" s="25"/>
       <c r="AD153" s="25"/>
     </row>
-    <row r="154" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC154" s="25"/>
       <c r="AD154" s="25"/>
     </row>
-    <row r="155" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC155" s="25"/>
       <c r="AD155" s="25"/>
     </row>
-    <row r="156" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC156" s="25"/>
       <c r="AD156" s="25"/>
     </row>
-    <row r="157" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC157" s="25"/>
       <c r="AD157" s="25"/>
     </row>
-    <row r="158" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC158" s="25"/>
       <c r="AD158" s="25"/>
     </row>
-    <row r="159" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC159" s="25"/>
       <c r="AD159" s="25"/>
     </row>
-    <row r="160" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC160" s="25"/>
       <c r="AD160" s="25"/>
     </row>
-    <row r="161" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC161" s="25"/>
       <c r="AD161" s="25"/>
     </row>
-    <row r="162" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC162" s="25"/>
       <c r="AD162" s="25"/>
     </row>
-    <row r="163" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC163" s="25"/>
       <c r="AD163" s="25"/>
     </row>
-    <row r="164" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC164" s="25"/>
       <c r="AD164" s="25"/>
     </row>
-    <row r="165" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC165" s="25"/>
       <c r="AD165" s="25"/>
     </row>
-    <row r="166" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC166" s="25"/>
       <c r="AD166" s="25"/>
     </row>
-    <row r="167" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC167" s="25"/>
       <c r="AD167" s="25"/>
     </row>
-    <row r="168" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC168" s="25"/>
       <c r="AD168" s="25"/>
     </row>
-    <row r="169" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC169" s="25"/>
       <c r="AD169" s="25"/>
     </row>
-    <row r="170" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC170" s="25"/>
       <c r="AD170" s="25"/>
     </row>
-    <row r="171" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC171" s="25"/>
       <c r="AD171" s="25"/>
     </row>
-    <row r="172" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC172" s="25"/>
       <c r="AD172" s="25"/>
     </row>
-    <row r="173" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC173" s="25"/>
       <c r="AD173" s="25"/>
     </row>
-    <row r="174" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC174" s="25"/>
       <c r="AD174" s="25"/>
     </row>
-    <row r="175" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC175" s="25"/>
       <c r="AD175" s="25"/>
     </row>
-    <row r="176" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC176" s="25"/>
       <c r="AD176" s="25"/>
     </row>
-    <row r="177" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC177" s="25"/>
       <c r="AD177" s="25"/>
     </row>
-    <row r="178" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC178" s="25"/>
       <c r="AD178" s="25"/>
     </row>
-    <row r="179" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC179" s="25"/>
       <c r="AD179" s="25"/>
     </row>
-    <row r="180" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC180" s="25"/>
       <c r="AD180" s="25"/>
     </row>
-    <row r="181" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC181" s="25"/>
       <c r="AD181" s="25"/>
     </row>
-    <row r="182" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC182" s="25"/>
       <c r="AD182" s="25"/>
     </row>
-    <row r="183" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC183" s="25"/>
       <c r="AD183" s="25"/>
     </row>
-    <row r="184" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC184" s="25"/>
       <c r="AD184" s="25"/>
     </row>
-    <row r="185" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC185" s="25"/>
       <c r="AD185" s="25"/>
     </row>
-    <row r="186" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC186" s="25"/>
       <c r="AD186" s="25"/>
     </row>
-    <row r="187" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC187" s="25"/>
       <c r="AD187" s="25"/>
     </row>
-    <row r="188" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC188" s="25"/>
       <c r="AD188" s="25"/>
     </row>
-    <row r="189" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC189" s="25"/>
       <c r="AD189" s="25"/>
     </row>
-    <row r="190" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC190" s="25"/>
       <c r="AD190" s="25"/>
     </row>
-    <row r="191" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC191" s="25"/>
       <c r="AD191" s="25"/>
     </row>
-    <row r="192" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC192" s="25"/>
       <c r="AD192" s="25"/>
     </row>
-    <row r="193" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC193" s="25"/>
       <c r="AD193" s="25"/>
     </row>
-    <row r="194" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC194" s="25"/>
       <c r="AD194" s="25"/>
     </row>
-    <row r="195" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC195" s="25"/>
       <c r="AD195" s="25"/>
     </row>
-    <row r="196" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC196" s="25"/>
       <c r="AD196" s="25"/>
     </row>
-    <row r="197" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC197" s="25"/>
       <c r="AD197" s="25"/>
     </row>
-    <row r="198" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC198" s="25"/>
       <c r="AD198" s="25"/>
     </row>
-    <row r="199" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC199" s="25"/>
       <c r="AD199" s="25"/>
     </row>
-    <row r="200" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC200" s="25"/>
       <c r="AD200" s="25"/>
     </row>
-    <row r="201" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC201" s="25"/>
       <c r="AD201" s="25"/>
     </row>
-    <row r="202" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC202" s="25"/>
       <c r="AD202" s="25"/>
     </row>
-    <row r="203" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC203" s="25"/>
       <c r="AD203" s="25"/>
     </row>
-    <row r="204" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC204" s="25"/>
       <c r="AD204" s="25"/>
     </row>
-    <row r="205" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC205" s="25"/>
       <c r="AD205" s="25"/>
     </row>
-    <row r="206" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC206" s="25"/>
       <c r="AD206" s="25"/>
     </row>
-    <row r="207" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC207" s="25"/>
       <c r="AD207" s="25"/>
     </row>
-    <row r="208" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC208" s="25"/>
       <c r="AD208" s="25"/>
     </row>
-    <row r="209" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC209" s="25"/>
       <c r="AD209" s="25"/>
     </row>
-    <row r="210" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC210" s="25"/>
       <c r="AD210" s="25"/>
     </row>
-    <row r="211" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC211" s="25"/>
       <c r="AD211" s="25"/>
     </row>
-    <row r="212" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC212" s="25"/>
       <c r="AD212" s="25"/>
     </row>
-    <row r="213" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC213" s="25"/>
       <c r="AD213" s="25"/>
     </row>
-    <row r="214" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC214" s="25"/>
       <c r="AD214" s="25"/>
     </row>
-    <row r="215" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC215" s="25"/>
       <c r="AD215" s="25"/>
     </row>
-    <row r="216" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC216" s="25"/>
       <c r="AD216" s="25"/>
     </row>
-    <row r="217" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC217" s="25"/>
       <c r="AD217" s="25"/>
     </row>
-    <row r="218" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC218" s="25"/>
       <c r="AD218" s="25"/>
     </row>
-    <row r="219" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC219" s="25"/>
       <c r="AD219" s="25"/>
     </row>
-    <row r="220" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC220" s="25"/>
       <c r="AD220" s="25"/>
     </row>
-    <row r="221" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC221" s="25"/>
       <c r="AD221" s="25"/>
     </row>
-    <row r="222" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC222" s="25"/>
       <c r="AD222" s="25"/>
     </row>
-    <row r="223" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC223" s="25"/>
       <c r="AD223" s="25"/>
     </row>
-    <row r="224" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC224" s="25"/>
       <c r="AD224" s="25"/>
     </row>
-    <row r="225" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC225" s="25"/>
       <c r="AD225" s="25"/>
     </row>
-    <row r="226" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC226" s="25"/>
       <c r="AD226" s="25"/>
     </row>
-    <row r="227" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC227" s="25"/>
       <c r="AD227" s="25"/>
     </row>
-    <row r="228" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC228" s="25"/>
       <c r="AD228" s="25"/>
     </row>
-    <row r="229" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC229" s="25"/>
       <c r="AD229" s="25"/>
     </row>
-    <row r="230" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC230" s="25"/>
       <c r="AD230" s="25"/>
     </row>
-    <row r="231" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC231" s="25"/>
       <c r="AD231" s="25"/>
     </row>
-    <row r="232" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC232" s="25"/>
       <c r="AD232" s="25"/>
     </row>
-    <row r="233" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC233" s="25"/>
       <c r="AD233" s="25"/>
     </row>
-    <row r="234" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC234" s="25"/>
       <c r="AD234" s="25"/>
     </row>
-    <row r="235" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC235" s="25"/>
       <c r="AD235" s="25"/>
     </row>
-    <row r="236" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC236" s="25"/>
       <c r="AD236" s="25"/>
     </row>
-    <row r="237" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC237" s="25"/>
       <c r="AD237" s="25"/>
     </row>
-    <row r="238" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC238" s="25"/>
       <c r="AD238" s="25"/>
     </row>
-    <row r="239" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC239" s="25"/>
       <c r="AD239" s="25"/>
     </row>
-    <row r="240" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC240" s="25"/>
       <c r="AD240" s="25"/>
     </row>
-    <row r="241" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC241" s="25"/>
       <c r="AD241" s="25"/>
     </row>
-    <row r="242" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC242" s="25"/>
       <c r="AD242" s="25"/>
     </row>
-    <row r="243" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC243" s="25"/>
       <c r="AD243" s="25"/>
     </row>
-    <row r="244" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC244" s="25"/>
       <c r="AD244" s="25"/>
     </row>
-    <row r="245" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC245" s="25"/>
       <c r="AD245" s="25"/>
     </row>
-    <row r="246" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC246" s="25"/>
       <c r="AD246" s="25"/>
     </row>
-    <row r="247" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC247" s="25"/>
       <c r="AD247" s="25"/>
     </row>
-    <row r="248" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC248" s="25"/>
       <c r="AD248" s="25"/>
     </row>
-    <row r="249" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC249" s="25"/>
       <c r="AD249" s="25"/>
     </row>
-    <row r="250" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC250" s="25"/>
       <c r="AD250" s="25"/>
     </row>
-    <row r="251" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC251" s="25"/>
       <c r="AD251" s="25"/>
     </row>
-    <row r="252" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC252" s="25"/>
       <c r="AD252" s="25"/>
     </row>
-    <row r="253" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC253" s="25"/>
       <c r="AD253" s="25"/>
     </row>
-    <row r="254" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC254" s="25"/>
       <c r="AD254" s="25"/>
     </row>
-    <row r="255" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC255" s="25"/>
       <c r="AD255" s="25"/>
     </row>
-    <row r="256" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC256" s="25"/>
       <c r="AD256" s="25"/>
     </row>
-    <row r="257" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC257" s="25"/>
       <c r="AD257" s="25"/>
     </row>
-    <row r="258" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC258" s="25"/>
       <c r="AD258" s="25"/>
     </row>
-    <row r="259" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC259" s="25"/>
       <c r="AD259" s="25"/>
     </row>
-    <row r="260" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC260" s="25"/>
       <c r="AD260" s="25"/>
     </row>
-    <row r="261" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC261" s="25"/>
       <c r="AD261" s="25"/>
     </row>
-    <row r="262" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC262" s="25"/>
       <c r="AD262" s="25"/>
     </row>
-    <row r="263" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC263" s="25"/>
       <c r="AD263" s="25"/>
     </row>
-    <row r="264" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC264" s="25"/>
       <c r="AD264" s="25"/>
     </row>
-    <row r="265" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC265" s="25"/>
       <c r="AD265" s="25"/>
     </row>
-    <row r="266" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC266" s="25"/>
       <c r="AD266" s="25"/>
     </row>
-    <row r="267" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC267" s="25"/>
       <c r="AD267" s="25"/>
     </row>
-    <row r="268" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC268" s="25"/>
       <c r="AD268" s="25"/>
     </row>
-    <row r="269" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC269" s="25"/>
       <c r="AD269" s="25"/>
     </row>
-    <row r="270" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC270" s="25"/>
       <c r="AD270" s="25"/>
     </row>
-    <row r="271" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC271" s="25"/>
       <c r="AD271" s="25"/>
     </row>
-    <row r="272" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC272" s="25"/>
       <c r="AD272" s="25"/>
     </row>
-    <row r="273" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC273" s="25"/>
       <c r="AD273" s="25"/>
     </row>
-    <row r="274" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC274" s="25"/>
       <c r="AD274" s="25"/>
     </row>
-    <row r="275" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC275" s="25"/>
       <c r="AD275" s="25"/>
     </row>
-    <row r="276" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC276" s="25"/>
       <c r="AD276" s="25"/>
     </row>
-    <row r="277" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC277" s="25"/>
       <c r="AD277" s="25"/>
     </row>
-    <row r="278" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC278" s="25"/>
       <c r="AD278" s="25"/>
     </row>
-    <row r="279" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC279" s="25"/>
       <c r="AD279" s="25"/>
     </row>
-    <row r="280" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC280" s="25"/>
       <c r="AD280" s="25"/>
     </row>
-    <row r="281" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC281" s="25"/>
       <c r="AD281" s="25"/>
     </row>
-    <row r="282" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC282" s="25"/>
       <c r="AD282" s="25"/>
     </row>
-    <row r="283" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC283" s="25"/>
       <c r="AD283" s="25"/>
     </row>
-    <row r="284" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC284" s="25"/>
       <c r="AD284" s="25"/>
     </row>
-    <row r="285" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC285" s="25"/>
       <c r="AD285" s="25"/>
     </row>
-    <row r="286" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC286" s="25"/>
       <c r="AD286" s="25"/>
     </row>
-    <row r="287" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC287" s="25"/>
       <c r="AD287" s="25"/>
     </row>
-    <row r="288" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC288" s="25"/>
       <c r="AD288" s="25"/>
     </row>
-    <row r="289" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC289" s="25"/>
       <c r="AD289" s="25"/>
     </row>
-    <row r="290" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC290" s="25"/>
       <c r="AD290" s="25"/>
     </row>
-    <row r="291" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC291" s="25"/>
       <c r="AD291" s="25"/>
     </row>
-    <row r="292" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC292" s="25"/>
       <c r="AD292" s="25"/>
     </row>
-    <row r="293" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC293" s="25"/>
       <c r="AD293" s="25"/>
     </row>
-    <row r="294" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC294" s="25"/>
       <c r="AD294" s="25"/>
     </row>
-    <row r="295" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC295" s="25"/>
       <c r="AD295" s="25"/>
     </row>
-    <row r="296" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC296" s="25"/>
       <c r="AD296" s="25"/>
     </row>
-    <row r="297" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC297" s="25"/>
       <c r="AD297" s="25"/>
     </row>
-    <row r="298" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC298" s="25"/>
       <c r="AD298" s="25"/>
     </row>
-    <row r="299" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC299" s="25"/>
       <c r="AD299" s="25"/>
     </row>
-    <row r="300" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC300" s="25"/>
       <c r="AD300" s="25"/>
     </row>
-    <row r="301" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC301" s="25"/>
       <c r="AD301" s="25"/>
     </row>
-    <row r="302" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC302" s="25"/>
       <c r="AD302" s="25"/>
     </row>
-    <row r="303" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC303" s="25"/>
       <c r="AD303" s="25"/>
     </row>
-    <row r="304" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC304" s="25"/>
       <c r="AD304" s="25"/>
     </row>
-    <row r="305" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC305" s="25"/>
       <c r="AD305" s="25"/>
     </row>
-    <row r="306" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC306" s="25"/>
       <c r="AD306" s="25"/>
     </row>
-    <row r="307" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC307" s="25"/>
       <c r="AD307" s="25"/>
     </row>
-    <row r="308" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC308" s="25"/>
       <c r="AD308" s="25"/>
     </row>
-    <row r="309" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC309" s="25"/>
       <c r="AD309" s="25"/>
     </row>
-    <row r="310" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AC310" s="25"/>
       <c r="AD310" s="25"/>
     </row>
-    <row r="311" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" spans="29:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="AC3:AD3"/>
@@ -22415,13 +22415,13 @@
       <selection sqref="A1:U55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>217</v>
       </c>
@@ -22477,7 +22477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>218</v>
       </c>
@@ -22533,7 +22533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>219</v>
       </c>
@@ -22589,7 +22589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>220</v>
       </c>
@@ -22645,7 +22645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>221</v>
       </c>
@@ -22701,7 +22701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>222</v>
       </c>
@@ -22757,7 +22757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>223</v>
       </c>
@@ -22813,7 +22813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>224</v>
       </c>
@@ -22869,7 +22869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>225</v>
       </c>
@@ -22925,7 +22925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>226</v>
       </c>
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>227</v>
       </c>
@@ -23037,7 +23037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>228</v>
       </c>
@@ -23093,7 +23093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>229</v>
       </c>
@@ -23149,7 +23149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>230</v>
       </c>
@@ -23205,7 +23205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>231</v>
       </c>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>232</v>
       </c>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>233</v>
       </c>
@@ -23373,7 +23373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>234</v>
       </c>
@@ -23429,7 +23429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>235</v>
       </c>
@@ -23485,7 +23485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>236</v>
       </c>
@@ -23541,7 +23541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>237</v>
       </c>
@@ -23597,7 +23597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>238</v>
       </c>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>239</v>
       </c>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>240</v>
       </c>
@@ -23765,7 +23765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>241</v>
       </c>
@@ -23821,7 +23821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>242</v>
       </c>
@@ -23877,7 +23877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>243</v>
       </c>
@@ -23933,7 +23933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>244</v>
       </c>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>245</v>
       </c>
@@ -24045,7 +24045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>246</v>
       </c>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>247</v>
       </c>
@@ -24157,7 +24157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>248</v>
       </c>
@@ -24213,7 +24213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>249</v>
       </c>
@@ -24269,7 +24269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>250</v>
       </c>
@@ -24325,7 +24325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>251</v>
       </c>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>252</v>
       </c>
@@ -24437,7 +24437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>253</v>
       </c>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>254</v>
       </c>
@@ -24549,7 +24549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>255</v>
       </c>
@@ -24605,7 +24605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>256</v>
       </c>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>257</v>
       </c>
@@ -24717,7 +24717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>258</v>
       </c>
@@ -24773,7 +24773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>259</v>
       </c>
@@ -24829,7 +24829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>260</v>
       </c>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>261</v>
       </c>
@@ -24941,7 +24941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>262</v>
       </c>
@@ -24997,7 +24997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>263</v>
       </c>
@@ -25053,7 +25053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>264</v>
       </c>
@@ -25109,7 +25109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>265</v>
       </c>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>266</v>
       </c>
@@ -25221,7 +25221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>267</v>
       </c>
@@ -25277,7 +25277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>268</v>
       </c>
@@ -25333,7 +25333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>269</v>
       </c>
@@ -25389,7 +25389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>270</v>
       </c>
@@ -25445,7 +25445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>271</v>
       </c>
@@ -25514,12 +25514,12 @@
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1"/>
+    <col min="1" max="1" width="51.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>272</v>
       </c>
@@ -25590,7 +25590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>273</v>
       </c>
@@ -25661,7 +25661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>274</v>
       </c>
@@ -25732,7 +25732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>276</v>
       </c>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>277</v>
       </c>
@@ -25945,7 +25945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>278</v>
       </c>
@@ -26016,7 +26016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>279</v>
       </c>
@@ -26087,7 +26087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -26158,7 +26158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>281</v>
       </c>
@@ -26229,7 +26229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>282</v>
       </c>
@@ -26300,7 +26300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>283</v>
       </c>
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>284</v>
       </c>
@@ -26442,7 +26442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>285</v>
       </c>
@@ -26513,7 +26513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>286</v>
       </c>
@@ -26584,7 +26584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>287</v>
       </c>
@@ -26655,7 +26655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>288</v>
       </c>
@@ -26726,7 +26726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>289</v>
       </c>
@@ -26797,7 +26797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>290</v>
       </c>
@@ -26868,7 +26868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>291</v>
       </c>
@@ -26939,7 +26939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>292</v>
       </c>
@@ -27010,7 +27010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>293</v>
       </c>
@@ -27081,7 +27081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>294</v>
       </c>
@@ -27152,7 +27152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>295</v>
       </c>
@@ -27223,7 +27223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>296</v>
       </c>
@@ -27294,7 +27294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>297</v>
       </c>
@@ -27365,7 +27365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>298</v>
       </c>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>299</v>
       </c>
@@ -27507,7 +27507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>300</v>
       </c>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>301</v>
       </c>
@@ -27649,7 +27649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>302</v>
       </c>
@@ -27720,7 +27720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>303</v>
       </c>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>304</v>
       </c>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>305</v>
       </c>
@@ -27933,7 +27933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>306</v>
       </c>
@@ -28004,7 +28004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>307</v>
       </c>
@@ -28075,7 +28075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>308</v>
       </c>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>309</v>
       </c>
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>310</v>
       </c>
@@ -28288,7 +28288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>311</v>
       </c>
@@ -28359,7 +28359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>312</v>
       </c>
@@ -28430,7 +28430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>313</v>
       </c>
@@ -28501,7 +28501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>314</v>
       </c>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>315</v>
       </c>
@@ -28643,7 +28643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>316</v>
       </c>
@@ -28714,7 +28714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>317</v>
       </c>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>318</v>
       </c>
@@ -28856,7 +28856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>319</v>
       </c>
@@ -28927,7 +28927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>320</v>
       </c>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>321</v>
       </c>
@@ -29069,7 +29069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>322</v>
       </c>
@@ -29140,7 +29140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>323</v>
       </c>
@@ -29211,7 +29211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>324</v>
       </c>
@@ -29282,7 +29282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>325</v>
       </c>
@@ -29353,7 +29353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>326</v>
       </c>
@@ -29434,13 +29434,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468087FD-4EEC-4D36-8986-00FBBE83882A}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>178</v>
       </c>
@@ -29472,7 +29472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>179</v>
       </c>
@@ -29504,7 +29504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>180</v>
       </c>
@@ -29536,7 +29536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -29568,7 +29568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -29600,7 +29600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>183</v>
       </c>
@@ -29632,7 +29632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>184</v>
       </c>
@@ -29664,7 +29664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>185</v>
       </c>
@@ -29696,7 +29696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>186</v>
       </c>
@@ -29728,7 +29728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>187</v>
       </c>
@@ -29760,7 +29760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>188</v>
       </c>
@@ -29792,7 +29792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>189</v>
       </c>
@@ -29824,7 +29824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>190</v>
       </c>
@@ -29856,7 +29856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>191</v>
       </c>
@@ -29888,7 +29888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>192</v>
       </c>
@@ -29920,7 +29920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>193</v>
       </c>
@@ -29952,7 +29952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -29984,7 +29984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>195</v>
       </c>
@@ -30016,7 +30016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>196</v>
       </c>
@@ -30048,7 +30048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>197</v>
       </c>
@@ -30080,7 +30080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>198</v>
       </c>
@@ -30112,7 +30112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>199</v>
       </c>
@@ -30144,7 +30144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>200</v>
       </c>
@@ -30176,7 +30176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>201</v>
       </c>
@@ -30208,7 +30208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>202</v>
       </c>
@@ -30240,7 +30240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>203</v>
       </c>
